--- a/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/실물투자 실습_240923.xlsx
+++ b/부동산 강의/엑셀로 만드는 부동산 Financial Modeling/실물투자 실습_240923.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\QuantifyPro\부동산 강의\엑셀로 만드는 부동산 Financial Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F32B49D-8A72-4DED-9A60-505CBDA1D040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE75D30-B24C-4D59-B41B-7C789945EB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A&amp;R" sheetId="5" r:id="rId1"/>
@@ -52,8 +52,386 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{232491C6-3601-44EC-A5F0-A0B0223328EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>토지분</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재산세
+토지의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종류에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>세율이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다름</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부동산</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모델링에서는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>별도합산과세를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">사용
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공모주택개발</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공모펀드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>리츠의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분리과세</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>혜택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="238">
   <si>
     <t>00물류센터 투자모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -906,12 +1284,136 @@
     <t>보증금 평균잔고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>운영비용 가정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM용역비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM용역비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM수수료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모품비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예비비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제세공과금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토지분 재산세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물분 재산세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합부동산세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간주임대료 부가세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로/공유수면전용료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요가정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평단가/월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연 상승률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명목 월임대료의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백만원/월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납부월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당면적(평)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용역비 단가(원/평)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM 용역비 소계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생시기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM수수료 소계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수선비 소계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용역비 소계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수비 소계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="16">
+  <numFmts count="18">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\);\-_)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm"/>
     <numFmt numFmtId="178" formatCode="#,##0.0000_);[Red]\(#,##0.0000\);\-_)"/>
@@ -928,8 +1430,10 @@
     <numFmt numFmtId="189" formatCode="#,##0&quot;원&quot;_);[Red]\(#,##0\);\-_)"/>
     <numFmt numFmtId="190" formatCode="#,##0&quot;평&quot;_);[Red]\(#,##0\);\-_)"/>
     <numFmt numFmtId="191" formatCode="#,##0&quot;년&quot;&quot;차&quot;_);[Red]\(#,##0\);\-_)"/>
+    <numFmt numFmtId="193" formatCode="#,##0.0&quot;배&quot;_);[Red]\(#,##0.0\);\-_)"/>
+    <numFmt numFmtId="194" formatCode="#,##0&quot;월&quot;_);[Red]\(#,##0\);\-_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1056,6 +1560,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1131,7 +1664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1434,6 +1967,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1443,7 +2011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1867,6 +2435,72 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="189" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -2026,23 +2660,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>339621</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>72118</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>417304</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>166457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>306458</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>48223</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>136850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="텍스트, 영수증, 스크린샷, 폰트이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+        <xdr:cNvPr id="3" name="그림 2" descr="텍스트, 스크린샷, 폰트, 번호이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08F92B6-ADB3-41B3-995C-12E04C80A82C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E6951B-9368-3153-DFAA-12EC97D899AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,8 +2692,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5987946" y="415018"/>
-          <a:ext cx="7282037" cy="3452132"/>
+          <a:off x="19830986" y="9864639"/>
+          <a:ext cx="12965919" cy="7417212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2684,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE41"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3787,7 +4421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AE52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -5095,11 +5729,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:BZ345"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="16" topLeftCell="G140" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="16" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="J153" sqref="J153"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -11688,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="BT58" s="125">
-        <f t="shared" ref="BT58:CY58" si="43">(1+$F69)^(BT57-1)*BT54</f>
+        <f t="shared" ref="BT58:BY58" si="43">(1+$F69)^(BT57-1)*BT54</f>
         <v>0</v>
       </c>
       <c r="BU58" s="125">
@@ -11973,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="BT59" s="125">
-        <f t="shared" ref="BT59:CY59" si="46">(1+BR$70)^(BT57-1)*BT54</f>
+        <f t="shared" ref="BT59:BY59" si="46">(1+BR$70)^(BT57-1)*BT54</f>
         <v>0</v>
       </c>
       <c r="BU59" s="125">
@@ -13215,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="BT74" s="111">
-        <f t="shared" ref="BT74:CY74" si="56">BT73*$F66/unit</f>
+        <f t="shared" ref="BT74:BY74" si="56">BT73*$F66/unit</f>
         <v>0</v>
       </c>
       <c r="BU74" s="111">
@@ -13795,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="BT78" s="111">
-        <f t="shared" ref="BT78:CY78" si="61">BT77*$F66/unit</f>
+        <f t="shared" ref="BT78:BY78" si="61">BT77*$F66/unit</f>
         <v>0</v>
       </c>
       <c r="BU78" s="111">
@@ -20117,7 +20751,7 @@
         <v>0</v>
       </c>
       <c r="BT120" s="125">
-        <f t="shared" ref="BT120:CY120" si="301">(1+$F131)^(BT119-1)*BT116</f>
+        <f t="shared" ref="BT120:BY120" si="301">(1+$F131)^(BT119-1)*BT116</f>
         <v>0</v>
       </c>
       <c r="BU120" s="125">
@@ -20402,7 +21036,7 @@
         <v>0</v>
       </c>
       <c r="BT121" s="125">
-        <f t="shared" ref="BT121:CY121" si="304">(1+BR$70)^(BT119-1)*BT116</f>
+        <f t="shared" ref="BT121:BY121" si="304">(1+BR$70)^(BT119-1)*BT116</f>
         <v>0</v>
       </c>
       <c r="BU121" s="125">
@@ -21644,7 +22278,7 @@
         <v>0</v>
       </c>
       <c r="BT136" s="111">
-        <f t="shared" ref="BT136:CY136" si="381">BT135*$F128/unit</f>
+        <f t="shared" ref="BT136:BY136" si="381">BT135*$F128/unit</f>
         <v>0</v>
       </c>
       <c r="BU136" s="111">
@@ -22224,7 +22858,7 @@
         <v>0</v>
       </c>
       <c r="BT140" s="111">
-        <f t="shared" ref="BT140:CY140" si="386">BT139*$F128/unit</f>
+        <f t="shared" ref="BT140:BY140" si="386">BT139*$F128/unit</f>
         <v>0</v>
       </c>
       <c r="BU140" s="111">
@@ -28546,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="BT182" s="125">
-        <f t="shared" ref="BT182:CY182" si="626">(1+$F193)^(BT181-1)*BT178</f>
+        <f t="shared" ref="BT182:BY182" si="626">(1+$F193)^(BT181-1)*BT178</f>
         <v>0</v>
       </c>
       <c r="BU182" s="125">
@@ -28831,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="BT183" s="125">
-        <f t="shared" ref="BT183:CY183" si="629">(1+BR$70)^(BT181-1)*BT178</f>
+        <f t="shared" ref="BT183:BY183" si="629">(1+BR$70)^(BT181-1)*BT178</f>
         <v>0</v>
       </c>
       <c r="BU183" s="125">
@@ -30073,7 +30707,7 @@
         <v>0</v>
       </c>
       <c r="BT198" s="111">
-        <f t="shared" ref="BT198:CY198" si="706">BT197*$F190/unit</f>
+        <f t="shared" ref="BT198:BY198" si="706">BT197*$F190/unit</f>
         <v>0</v>
       </c>
       <c r="BU198" s="111">
@@ -30653,7 +31287,7 @@
         <v>0</v>
       </c>
       <c r="BT202" s="111">
-        <f t="shared" ref="BT202:CY202" si="711">BT201*$F190/unit</f>
+        <f t="shared" ref="BT202:BY202" si="711">BT201*$F190/unit</f>
         <v>0</v>
       </c>
       <c r="BU202" s="111">
@@ -36975,7 +37609,7 @@
         <v>0</v>
       </c>
       <c r="BT244" s="125">
-        <f t="shared" ref="BT244:CY244" si="951">(1+$F255)^(BT243-1)*BT240</f>
+        <f t="shared" ref="BT244:BY244" si="951">(1+$F255)^(BT243-1)*BT240</f>
         <v>0</v>
       </c>
       <c r="BU244" s="125">
@@ -37260,7 +37894,7 @@
         <v>0</v>
       </c>
       <c r="BT245" s="125">
-        <f t="shared" ref="BT245:CY245" si="954">(1+BR$70)^(BT243-1)*BT240</f>
+        <f t="shared" ref="BT245:BY245" si="954">(1+BR$70)^(BT243-1)*BT240</f>
         <v>0</v>
       </c>
       <c r="BU245" s="125">
@@ -38502,7 +39136,7 @@
         <v>0</v>
       </c>
       <c r="BT260" s="111">
-        <f t="shared" ref="BT260:CY260" si="1031">BT259*$F252/unit</f>
+        <f t="shared" ref="BT260:BY260" si="1031">BT259*$F252/unit</f>
         <v>0</v>
       </c>
       <c r="BU260" s="111">
@@ -39082,7 +39716,7 @@
         <v>0</v>
       </c>
       <c r="BT264" s="111">
-        <f t="shared" ref="BT264:CY264" si="1036">BT263*$F252/unit</f>
+        <f t="shared" ref="BT264:BY264" si="1036">BT263*$F252/unit</f>
         <v>0</v>
       </c>
       <c r="BU264" s="111">
@@ -45404,7 +46038,7 @@
         <v>0</v>
       </c>
       <c r="BT306" s="125">
-        <f t="shared" ref="BT306:CY306" si="1276">(1+$F317)^(BT305-1)*BT302</f>
+        <f t="shared" ref="BT306:BY306" si="1276">(1+$F317)^(BT305-1)*BT302</f>
         <v>0</v>
       </c>
       <c r="BU306" s="125">
@@ -45689,7 +46323,7 @@
         <v>0</v>
       </c>
       <c r="BT307" s="125">
-        <f t="shared" ref="BT307:CY307" si="1279">(1+BR$70)^(BT305-1)*BT302</f>
+        <f t="shared" ref="BT307:BY307" si="1279">(1+BR$70)^(BT305-1)*BT302</f>
         <v>0</v>
       </c>
       <c r="BU307" s="125">
@@ -46931,7 +47565,7 @@
         <v>0</v>
       </c>
       <c r="BT322" s="111">
-        <f t="shared" ref="BT322:CY322" si="1356">BT321*$F314/unit</f>
+        <f t="shared" ref="BT322:BY322" si="1356">BT321*$F314/unit</f>
         <v>0</v>
       </c>
       <c r="BU322" s="111">
@@ -47511,7 +48145,7 @@
         <v>0</v>
       </c>
       <c r="BT326" s="111">
-        <f t="shared" ref="BT326:CY326" si="1361">BT325*$F314/unit</f>
+        <f t="shared" ref="BT326:BY326" si="1361">BT325*$F314/unit</f>
         <v>0</v>
       </c>
       <c r="BU326" s="111">
@@ -51299,11 +51933,8113 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:BZ63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:78" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" spans="1:78" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:78" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="97">
+        <v>1</v>
+      </c>
+      <c r="J8" s="97">
+        <v>2</v>
+      </c>
+      <c r="K8" s="97">
+        <v>3</v>
+      </c>
+      <c r="L8" s="97">
+        <v>4</v>
+      </c>
+      <c r="M8" s="97">
+        <v>5</v>
+      </c>
+      <c r="N8" s="97">
+        <v>6</v>
+      </c>
+      <c r="O8" s="97">
+        <v>7</v>
+      </c>
+      <c r="P8" s="97">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="97">
+        <v>9</v>
+      </c>
+      <c r="R8" s="97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:78" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="98">
+        <f>start</f>
+        <v>45412</v>
+      </c>
+      <c r="J9" s="98">
+        <f>EOMONTH(I10,1)</f>
+        <v>45596</v>
+      </c>
+      <c r="K9" s="98">
+        <f t="shared" ref="K9:R9" si="0">EOMONTH(J10,1)</f>
+        <v>45777</v>
+      </c>
+      <c r="L9" s="98">
+        <f t="shared" si="0"/>
+        <v>45961</v>
+      </c>
+      <c r="M9" s="98">
+        <f t="shared" si="0"/>
+        <v>46142</v>
+      </c>
+      <c r="N9" s="98">
+        <f t="shared" si="0"/>
+        <v>46326</v>
+      </c>
+      <c r="O9" s="98">
+        <f t="shared" si="0"/>
+        <v>46507</v>
+      </c>
+      <c r="P9" s="98">
+        <f t="shared" si="0"/>
+        <v>46691</v>
+      </c>
+      <c r="Q9" s="98">
+        <f t="shared" si="0"/>
+        <v>46873</v>
+      </c>
+      <c r="R9" s="98">
+        <f t="shared" si="0"/>
+        <v>47057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:78" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="98">
+        <f t="shared" ref="I10:R10" si="1">EOMONTH(I9,period-1)</f>
+        <v>45565</v>
+      </c>
+      <c r="J10" s="98">
+        <f t="shared" si="1"/>
+        <v>45747</v>
+      </c>
+      <c r="K10" s="98">
+        <f t="shared" si="1"/>
+        <v>45930</v>
+      </c>
+      <c r="L10" s="98">
+        <f t="shared" si="1"/>
+        <v>46112</v>
+      </c>
+      <c r="M10" s="98">
+        <f t="shared" si="1"/>
+        <v>46295</v>
+      </c>
+      <c r="N10" s="98">
+        <f t="shared" si="1"/>
+        <v>46477</v>
+      </c>
+      <c r="O10" s="98">
+        <f t="shared" si="1"/>
+        <v>46660</v>
+      </c>
+      <c r="P10" s="98">
+        <f t="shared" si="1"/>
+        <v>46843</v>
+      </c>
+      <c r="Q10" s="98">
+        <f t="shared" si="1"/>
+        <v>47026</v>
+      </c>
+      <c r="R10" s="98">
+        <f t="shared" si="1"/>
+        <v>47208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:78" s="95" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="95">
+        <f t="shared" ref="H11:BS11" si="2">(H14&gt;=start)*(H14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AI11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AK11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AL11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AM11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AN11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AO11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AP11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AR11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AS11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AT11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AU11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AV11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AW11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AX11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AY11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BA11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BB11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BC11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BD11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BE11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BF11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BG11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BH11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BI11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BK11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BL11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BM11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BN11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BO11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BP11" s="95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR11" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BS11" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BT11" s="95">
+        <f t="shared" ref="BT11:BY11" si="3">(BT14&gt;=start)*(BT14&lt;=exit)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BU11" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BV11" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BW11" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BX11" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BY11" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:78" s="95" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="95">
+        <f>SUM($H$11:H11)*H11</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="95">
+        <f>SUM($H$11:I11)*I11</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="95">
+        <f>SUM($H$11:J11)*J11</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="95">
+        <f>SUM($H$11:K11)*K11</f>
+        <v>3</v>
+      </c>
+      <c r="L12" s="95">
+        <f>SUM($H$11:L11)*L11</f>
+        <v>4</v>
+      </c>
+      <c r="M12" s="95">
+        <f>SUM($H$11:M11)*M11</f>
+        <v>5</v>
+      </c>
+      <c r="N12" s="95">
+        <f>SUM($H$11:N11)*N11</f>
+        <v>6</v>
+      </c>
+      <c r="O12" s="95">
+        <f>SUM($H$11:O11)*O11</f>
+        <v>7</v>
+      </c>
+      <c r="P12" s="95">
+        <f>SUM($H$11:P11)*P11</f>
+        <v>8</v>
+      </c>
+      <c r="Q12" s="95">
+        <f>SUM($H$11:Q11)*Q11</f>
+        <v>9</v>
+      </c>
+      <c r="R12" s="95">
+        <f>SUM($H$11:R11)*R11</f>
+        <v>10</v>
+      </c>
+      <c r="S12" s="95">
+        <f>SUM($H$11:S11)*S11</f>
+        <v>11</v>
+      </c>
+      <c r="T12" s="95">
+        <f>SUM($H$11:T11)*T11</f>
+        <v>12</v>
+      </c>
+      <c r="U12" s="95">
+        <f>SUM($H$11:U11)*U11</f>
+        <v>13</v>
+      </c>
+      <c r="V12" s="95">
+        <f>SUM($H$11:V11)*V11</f>
+        <v>14</v>
+      </c>
+      <c r="W12" s="95">
+        <f>SUM($H$11:W11)*W11</f>
+        <v>15</v>
+      </c>
+      <c r="X12" s="95">
+        <f>SUM($H$11:X11)*X11</f>
+        <v>16</v>
+      </c>
+      <c r="Y12" s="95">
+        <f>SUM($H$11:Y11)*Y11</f>
+        <v>17</v>
+      </c>
+      <c r="Z12" s="95">
+        <f>SUM($H$11:Z11)*Z11</f>
+        <v>18</v>
+      </c>
+      <c r="AA12" s="95">
+        <f>SUM($H$11:AA11)*AA11</f>
+        <v>19</v>
+      </c>
+      <c r="AB12" s="95">
+        <f>SUM($H$11:AB11)*AB11</f>
+        <v>20</v>
+      </c>
+      <c r="AC12" s="95">
+        <f>SUM($H$11:AC11)*AC11</f>
+        <v>21</v>
+      </c>
+      <c r="AD12" s="95">
+        <f>SUM($H$11:AD11)*AD11</f>
+        <v>22</v>
+      </c>
+      <c r="AE12" s="95">
+        <f>SUM($H$11:AE11)*AE11</f>
+        <v>23</v>
+      </c>
+      <c r="AF12" s="95">
+        <f>SUM($H$11:AF11)*AF11</f>
+        <v>24</v>
+      </c>
+      <c r="AG12" s="95">
+        <f>SUM($H$11:AG11)*AG11</f>
+        <v>25</v>
+      </c>
+      <c r="AH12" s="95">
+        <f>SUM($H$11:AH11)*AH11</f>
+        <v>26</v>
+      </c>
+      <c r="AI12" s="95">
+        <f>SUM($H$11:AI11)*AI11</f>
+        <v>27</v>
+      </c>
+      <c r="AJ12" s="95">
+        <f>SUM($H$11:AJ11)*AJ11</f>
+        <v>28</v>
+      </c>
+      <c r="AK12" s="95">
+        <f>SUM($H$11:AK11)*AK11</f>
+        <v>29</v>
+      </c>
+      <c r="AL12" s="95">
+        <f>SUM($H$11:AL11)*AL11</f>
+        <v>30</v>
+      </c>
+      <c r="AM12" s="95">
+        <f>SUM($H$11:AM11)*AM11</f>
+        <v>31</v>
+      </c>
+      <c r="AN12" s="95">
+        <f>SUM($H$11:AN11)*AN11</f>
+        <v>32</v>
+      </c>
+      <c r="AO12" s="95">
+        <f>SUM($H$11:AO11)*AO11</f>
+        <v>33</v>
+      </c>
+      <c r="AP12" s="95">
+        <f>SUM($H$11:AP11)*AP11</f>
+        <v>34</v>
+      </c>
+      <c r="AQ12" s="95">
+        <f>SUM($H$11:AQ11)*AQ11</f>
+        <v>35</v>
+      </c>
+      <c r="AR12" s="95">
+        <f>SUM($H$11:AR11)*AR11</f>
+        <v>36</v>
+      </c>
+      <c r="AS12" s="95">
+        <f>SUM($H$11:AS11)*AS11</f>
+        <v>37</v>
+      </c>
+      <c r="AT12" s="95">
+        <f>SUM($H$11:AT11)*AT11</f>
+        <v>38</v>
+      </c>
+      <c r="AU12" s="95">
+        <f>SUM($H$11:AU11)*AU11</f>
+        <v>39</v>
+      </c>
+      <c r="AV12" s="95">
+        <f>SUM($H$11:AV11)*AV11</f>
+        <v>40</v>
+      </c>
+      <c r="AW12" s="95">
+        <f>SUM($H$11:AW11)*AW11</f>
+        <v>41</v>
+      </c>
+      <c r="AX12" s="95">
+        <f>SUM($H$11:AX11)*AX11</f>
+        <v>42</v>
+      </c>
+      <c r="AY12" s="95">
+        <f>SUM($H$11:AY11)*AY11</f>
+        <v>43</v>
+      </c>
+      <c r="AZ12" s="95">
+        <f>SUM($H$11:AZ11)*AZ11</f>
+        <v>44</v>
+      </c>
+      <c r="BA12" s="95">
+        <f>SUM($H$11:BA11)*BA11</f>
+        <v>45</v>
+      </c>
+      <c r="BB12" s="95">
+        <f>SUM($H$11:BB11)*BB11</f>
+        <v>46</v>
+      </c>
+      <c r="BC12" s="95">
+        <f>SUM($H$11:BC11)*BC11</f>
+        <v>47</v>
+      </c>
+      <c r="BD12" s="95">
+        <f>SUM($H$11:BD11)*BD11</f>
+        <v>48</v>
+      </c>
+      <c r="BE12" s="95">
+        <f>SUM($H$11:BE11)*BE11</f>
+        <v>49</v>
+      </c>
+      <c r="BF12" s="95">
+        <f>SUM($H$11:BF11)*BF11</f>
+        <v>50</v>
+      </c>
+      <c r="BG12" s="95">
+        <f>SUM($H$11:BG11)*BG11</f>
+        <v>51</v>
+      </c>
+      <c r="BH12" s="95">
+        <f>SUM($H$11:BH11)*BH11</f>
+        <v>52</v>
+      </c>
+      <c r="BI12" s="95">
+        <f>SUM($H$11:BI11)*BI11</f>
+        <v>53</v>
+      </c>
+      <c r="BJ12" s="95">
+        <f>SUM($H$11:BJ11)*BJ11</f>
+        <v>54</v>
+      </c>
+      <c r="BK12" s="95">
+        <f>SUM($H$11:BK11)*BK11</f>
+        <v>55</v>
+      </c>
+      <c r="BL12" s="95">
+        <f>SUM($H$11:BL11)*BL11</f>
+        <v>56</v>
+      </c>
+      <c r="BM12" s="95">
+        <f>SUM($H$11:BM11)*BM11</f>
+        <v>57</v>
+      </c>
+      <c r="BN12" s="95">
+        <f>SUM($H$11:BN11)*BN11</f>
+        <v>58</v>
+      </c>
+      <c r="BO12" s="95">
+        <f>SUM($H$11:BO11)*BO11</f>
+        <v>59</v>
+      </c>
+      <c r="BP12" s="95">
+        <f>SUM($H$11:BP11)*BP11</f>
+        <v>60</v>
+      </c>
+      <c r="BQ12" s="95">
+        <f>SUM($H$11:BQ11)*BQ11</f>
+        <v>0</v>
+      </c>
+      <c r="BR12" s="95">
+        <f>SUM($H$11:BR11)*BR11</f>
+        <v>0</v>
+      </c>
+      <c r="BS12" s="95">
+        <f>SUM($H$11:BS11)*BS11</f>
+        <v>0</v>
+      </c>
+      <c r="BT12" s="95">
+        <f>SUM($H$11:BT11)*BT11</f>
+        <v>0</v>
+      </c>
+      <c r="BU12" s="95">
+        <f>SUM($H$11:BU11)*BU11</f>
+        <v>0</v>
+      </c>
+      <c r="BV12" s="95">
+        <f>SUM($H$11:BV11)*BV11</f>
+        <v>0</v>
+      </c>
+      <c r="BW12" s="95">
+        <f>SUM($H$11:BW11)*BW11</f>
+        <v>0</v>
+      </c>
+      <c r="BX12" s="95">
+        <f>SUM($H$11:BX11)*BX11</f>
+        <v>0</v>
+      </c>
+      <c r="BY12" s="95">
+        <f>SUM($H$11:BY11)*BY11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:78" s="95" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="95">
+        <f>(MOD(H12,12)=1)*1</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="95">
+        <f t="shared" ref="I13:BT13" si="4">(MOD(I12,12)=1)*1</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="95">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="95">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="95">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AT13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="95">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BF13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BI13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BK13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BL13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BM13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BN13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BO13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BP13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BR13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT13" s="95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU13" s="95">
+        <f t="shared" ref="BU13:BY13" si="5">(MOD(BU12,12)=1)*1</f>
+        <v>0</v>
+      </c>
+      <c r="BV13" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BW13" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BX13" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BY13" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="99">
+        <f>acq</f>
+        <v>45352</v>
+      </c>
+      <c r="I14" s="99">
+        <f>EOMONTH(H14,1)</f>
+        <v>45412</v>
+      </c>
+      <c r="J14" s="99">
+        <f t="shared" ref="J14:BU14" si="6">EOMONTH(I14,1)</f>
+        <v>45443</v>
+      </c>
+      <c r="K14" s="99">
+        <f t="shared" si="6"/>
+        <v>45473</v>
+      </c>
+      <c r="L14" s="99">
+        <f t="shared" si="6"/>
+        <v>45504</v>
+      </c>
+      <c r="M14" s="99">
+        <f t="shared" si="6"/>
+        <v>45535</v>
+      </c>
+      <c r="N14" s="99">
+        <f t="shared" si="6"/>
+        <v>45565</v>
+      </c>
+      <c r="O14" s="99">
+        <f t="shared" si="6"/>
+        <v>45596</v>
+      </c>
+      <c r="P14" s="99">
+        <f t="shared" si="6"/>
+        <v>45626</v>
+      </c>
+      <c r="Q14" s="99">
+        <f t="shared" si="6"/>
+        <v>45657</v>
+      </c>
+      <c r="R14" s="99">
+        <f t="shared" si="6"/>
+        <v>45688</v>
+      </c>
+      <c r="S14" s="99">
+        <f t="shared" si="6"/>
+        <v>45716</v>
+      </c>
+      <c r="T14" s="99">
+        <f t="shared" si="6"/>
+        <v>45747</v>
+      </c>
+      <c r="U14" s="99">
+        <f t="shared" si="6"/>
+        <v>45777</v>
+      </c>
+      <c r="V14" s="99">
+        <f t="shared" si="6"/>
+        <v>45808</v>
+      </c>
+      <c r="W14" s="99">
+        <f t="shared" si="6"/>
+        <v>45838</v>
+      </c>
+      <c r="X14" s="99">
+        <f t="shared" si="6"/>
+        <v>45869</v>
+      </c>
+      <c r="Y14" s="99">
+        <f t="shared" si="6"/>
+        <v>45900</v>
+      </c>
+      <c r="Z14" s="99">
+        <f t="shared" si="6"/>
+        <v>45930</v>
+      </c>
+      <c r="AA14" s="99">
+        <f t="shared" si="6"/>
+        <v>45961</v>
+      </c>
+      <c r="AB14" s="99">
+        <f t="shared" si="6"/>
+        <v>45991</v>
+      </c>
+      <c r="AC14" s="99">
+        <f t="shared" si="6"/>
+        <v>46022</v>
+      </c>
+      <c r="AD14" s="99">
+        <f t="shared" si="6"/>
+        <v>46053</v>
+      </c>
+      <c r="AE14" s="99">
+        <f t="shared" si="6"/>
+        <v>46081</v>
+      </c>
+      <c r="AF14" s="99">
+        <f t="shared" si="6"/>
+        <v>46112</v>
+      </c>
+      <c r="AG14" s="99">
+        <f t="shared" si="6"/>
+        <v>46142</v>
+      </c>
+      <c r="AH14" s="99">
+        <f t="shared" si="6"/>
+        <v>46173</v>
+      </c>
+      <c r="AI14" s="99">
+        <f t="shared" si="6"/>
+        <v>46203</v>
+      </c>
+      <c r="AJ14" s="99">
+        <f t="shared" si="6"/>
+        <v>46234</v>
+      </c>
+      <c r="AK14" s="99">
+        <f t="shared" si="6"/>
+        <v>46265</v>
+      </c>
+      <c r="AL14" s="99">
+        <f t="shared" si="6"/>
+        <v>46295</v>
+      </c>
+      <c r="AM14" s="99">
+        <f t="shared" si="6"/>
+        <v>46326</v>
+      </c>
+      <c r="AN14" s="99">
+        <f t="shared" si="6"/>
+        <v>46356</v>
+      </c>
+      <c r="AO14" s="99">
+        <f t="shared" si="6"/>
+        <v>46387</v>
+      </c>
+      <c r="AP14" s="99">
+        <f t="shared" si="6"/>
+        <v>46418</v>
+      </c>
+      <c r="AQ14" s="99">
+        <f t="shared" si="6"/>
+        <v>46446</v>
+      </c>
+      <c r="AR14" s="99">
+        <f t="shared" si="6"/>
+        <v>46477</v>
+      </c>
+      <c r="AS14" s="99">
+        <f t="shared" si="6"/>
+        <v>46507</v>
+      </c>
+      <c r="AT14" s="99">
+        <f t="shared" si="6"/>
+        <v>46538</v>
+      </c>
+      <c r="AU14" s="99">
+        <f t="shared" si="6"/>
+        <v>46568</v>
+      </c>
+      <c r="AV14" s="99">
+        <f t="shared" si="6"/>
+        <v>46599</v>
+      </c>
+      <c r="AW14" s="99">
+        <f t="shared" si="6"/>
+        <v>46630</v>
+      </c>
+      <c r="AX14" s="99">
+        <f t="shared" si="6"/>
+        <v>46660</v>
+      </c>
+      <c r="AY14" s="99">
+        <f t="shared" si="6"/>
+        <v>46691</v>
+      </c>
+      <c r="AZ14" s="99">
+        <f t="shared" si="6"/>
+        <v>46721</v>
+      </c>
+      <c r="BA14" s="99">
+        <f t="shared" si="6"/>
+        <v>46752</v>
+      </c>
+      <c r="BB14" s="99">
+        <f t="shared" si="6"/>
+        <v>46783</v>
+      </c>
+      <c r="BC14" s="99">
+        <f t="shared" si="6"/>
+        <v>46812</v>
+      </c>
+      <c r="BD14" s="99">
+        <f t="shared" si="6"/>
+        <v>46843</v>
+      </c>
+      <c r="BE14" s="99">
+        <f t="shared" si="6"/>
+        <v>46873</v>
+      </c>
+      <c r="BF14" s="99">
+        <f t="shared" si="6"/>
+        <v>46904</v>
+      </c>
+      <c r="BG14" s="99">
+        <f t="shared" si="6"/>
+        <v>46934</v>
+      </c>
+      <c r="BH14" s="99">
+        <f t="shared" si="6"/>
+        <v>46965</v>
+      </c>
+      <c r="BI14" s="99">
+        <f t="shared" si="6"/>
+        <v>46996</v>
+      </c>
+      <c r="BJ14" s="99">
+        <f t="shared" si="6"/>
+        <v>47026</v>
+      </c>
+      <c r="BK14" s="99">
+        <f t="shared" si="6"/>
+        <v>47057</v>
+      </c>
+      <c r="BL14" s="99">
+        <f t="shared" si="6"/>
+        <v>47087</v>
+      </c>
+      <c r="BM14" s="99">
+        <f t="shared" si="6"/>
+        <v>47118</v>
+      </c>
+      <c r="BN14" s="99">
+        <f t="shared" si="6"/>
+        <v>47149</v>
+      </c>
+      <c r="BO14" s="99">
+        <f t="shared" si="6"/>
+        <v>47177</v>
+      </c>
+      <c r="BP14" s="99">
+        <f t="shared" si="6"/>
+        <v>47208</v>
+      </c>
+      <c r="BQ14" s="99">
+        <f t="shared" si="6"/>
+        <v>47238</v>
+      </c>
+      <c r="BR14" s="99">
+        <f t="shared" si="6"/>
+        <v>47269</v>
+      </c>
+      <c r="BS14" s="99">
+        <f t="shared" si="6"/>
+        <v>47299</v>
+      </c>
+      <c r="BT14" s="99">
+        <f t="shared" si="6"/>
+        <v>47330</v>
+      </c>
+      <c r="BU14" s="99">
+        <f t="shared" si="6"/>
+        <v>47361</v>
+      </c>
+      <c r="BV14" s="99">
+        <f t="shared" ref="BV14:BY14" si="7">EOMONTH(BU14,1)</f>
+        <v>47391</v>
+      </c>
+      <c r="BW14" s="99">
+        <f t="shared" si="7"/>
+        <v>47422</v>
+      </c>
+      <c r="BX14" s="99">
+        <f t="shared" si="7"/>
+        <v>47452</v>
+      </c>
+      <c r="BY14" s="99">
+        <f t="shared" si="7"/>
+        <v>47483</v>
+      </c>
+      <c r="BZ14" s="18"/>
+    </row>
+    <row r="15" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="100">
+        <f>SUMIFS($I$8:$R$8,$I$9:$R$9,"&lt;="&amp;H$14,$I$10:$R$10,"&gt;="&amp;H$14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="100">
+        <f t="shared" ref="I15:BT15" si="8">SUMIFS($I$8:$R$8,$I$9:$R$9,"&lt;="&amp;I$14,$I$10:$R$10,"&gt;="&amp;I$14)</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="100">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="100">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="100">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="100">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="100">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="100">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="P15" s="100">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="100">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="R15" s="100">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S15" s="100">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="T15" s="100">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U15" s="100">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="V15" s="100">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="W15" s="100">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="X15" s="100">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Y15" s="100">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Z15" s="100">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AA15" s="100">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AB15" s="100">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AC15" s="100">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AD15" s="100">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AE15" s="100">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AF15" s="100">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AG15" s="100">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AH15" s="100">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AI15" s="100">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="100">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AK15" s="100">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AL15" s="100">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AM15" s="100">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AN15" s="100">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AO15" s="100">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AP15" s="100">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AQ15" s="100">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AR15" s="100">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AS15" s="100">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AT15" s="100">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AU15" s="100">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AV15" s="100">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AW15" s="100">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AX15" s="100">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AY15" s="100">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AZ15" s="100">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BA15" s="100">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BB15" s="100">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BC15" s="100">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BD15" s="100">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BE15" s="100">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BF15" s="100">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BG15" s="100">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BH15" s="100">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BI15" s="100">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BJ15" s="100">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BK15" s="100">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BL15" s="100">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BM15" s="100">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BN15" s="100">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BO15" s="100">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BP15" s="100">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BQ15" s="100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BR15" s="100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BS15" s="100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BT15" s="100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BU15" s="100">
+        <f t="shared" ref="BU15:BY15" si="9">SUMIFS($I$8:$R$8,$I$9:$R$9,"&lt;="&amp;BU$14,$I$10:$R$10,"&gt;="&amp;BU$14)</f>
+        <v>0</v>
+      </c>
+      <c r="BV15" s="100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BW15" s="100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BX15" s="100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BY15" s="100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:78" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="101"/>
+      <c r="H16" s="102">
+        <f>SUM($H$13:H13)*H11</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="102">
+        <f>SUM($H$13:I13)*I11</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="102">
+        <f>SUM($H$13:J13)*J11</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="102">
+        <f>SUM($H$13:K13)*K11</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="102">
+        <f>SUM($H$13:L13)*L11</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="102">
+        <f>SUM($H$13:M13)*M11</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="102">
+        <f>SUM($H$13:N13)*N11</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="102">
+        <f>SUM($H$13:O13)*O11</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="102">
+        <f>SUM($H$13:P13)*P11</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="102">
+        <f>SUM($H$13:Q13)*Q11</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="102">
+        <f>SUM($H$13:R13)*R11</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="102">
+        <f>SUM($H$13:S13)*S11</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="102">
+        <f>SUM($H$13:T13)*T11</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="102">
+        <f>SUM($H$13:U13)*U11</f>
+        <v>2</v>
+      </c>
+      <c r="V16" s="102">
+        <f>SUM($H$13:V13)*V11</f>
+        <v>2</v>
+      </c>
+      <c r="W16" s="102">
+        <f>SUM($H$13:W13)*W11</f>
+        <v>2</v>
+      </c>
+      <c r="X16" s="102">
+        <f>SUM($H$13:X13)*X11</f>
+        <v>2</v>
+      </c>
+      <c r="Y16" s="102">
+        <f>SUM($H$13:Y13)*Y11</f>
+        <v>2</v>
+      </c>
+      <c r="Z16" s="102">
+        <f>SUM($H$13:Z13)*Z11</f>
+        <v>2</v>
+      </c>
+      <c r="AA16" s="102">
+        <f>SUM($H$13:AA13)*AA11</f>
+        <v>2</v>
+      </c>
+      <c r="AB16" s="102">
+        <f>SUM($H$13:AB13)*AB11</f>
+        <v>2</v>
+      </c>
+      <c r="AC16" s="102">
+        <f>SUM($H$13:AC13)*AC11</f>
+        <v>2</v>
+      </c>
+      <c r="AD16" s="102">
+        <f>SUM($H$13:AD13)*AD11</f>
+        <v>2</v>
+      </c>
+      <c r="AE16" s="102">
+        <f>SUM($H$13:AE13)*AE11</f>
+        <v>2</v>
+      </c>
+      <c r="AF16" s="102">
+        <f>SUM($H$13:AF13)*AF11</f>
+        <v>2</v>
+      </c>
+      <c r="AG16" s="102">
+        <f>SUM($H$13:AG13)*AG11</f>
+        <v>3</v>
+      </c>
+      <c r="AH16" s="102">
+        <f>SUM($H$13:AH13)*AH11</f>
+        <v>3</v>
+      </c>
+      <c r="AI16" s="102">
+        <f>SUM($H$13:AI13)*AI11</f>
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="102">
+        <f>SUM($H$13:AJ13)*AJ11</f>
+        <v>3</v>
+      </c>
+      <c r="AK16" s="102">
+        <f>SUM($H$13:AK13)*AK11</f>
+        <v>3</v>
+      </c>
+      <c r="AL16" s="102">
+        <f>SUM($H$13:AL13)*AL11</f>
+        <v>3</v>
+      </c>
+      <c r="AM16" s="102">
+        <f>SUM($H$13:AM13)*AM11</f>
+        <v>3</v>
+      </c>
+      <c r="AN16" s="102">
+        <f>SUM($H$13:AN13)*AN11</f>
+        <v>3</v>
+      </c>
+      <c r="AO16" s="102">
+        <f>SUM($H$13:AO13)*AO11</f>
+        <v>3</v>
+      </c>
+      <c r="AP16" s="102">
+        <f>SUM($H$13:AP13)*AP11</f>
+        <v>3</v>
+      </c>
+      <c r="AQ16" s="102">
+        <f>SUM($H$13:AQ13)*AQ11</f>
+        <v>3</v>
+      </c>
+      <c r="AR16" s="102">
+        <f>SUM($H$13:AR13)*AR11</f>
+        <v>3</v>
+      </c>
+      <c r="AS16" s="102">
+        <f>SUM($H$13:AS13)*AS11</f>
+        <v>4</v>
+      </c>
+      <c r="AT16" s="102">
+        <f>SUM($H$13:AT13)*AT11</f>
+        <v>4</v>
+      </c>
+      <c r="AU16" s="102">
+        <f>SUM($H$13:AU13)*AU11</f>
+        <v>4</v>
+      </c>
+      <c r="AV16" s="102">
+        <f>SUM($H$13:AV13)*AV11</f>
+        <v>4</v>
+      </c>
+      <c r="AW16" s="102">
+        <f>SUM($H$13:AW13)*AW11</f>
+        <v>4</v>
+      </c>
+      <c r="AX16" s="102">
+        <f>SUM($H$13:AX13)*AX11</f>
+        <v>4</v>
+      </c>
+      <c r="AY16" s="102">
+        <f>SUM($H$13:AY13)*AY11</f>
+        <v>4</v>
+      </c>
+      <c r="AZ16" s="102">
+        <f>SUM($H$13:AZ13)*AZ11</f>
+        <v>4</v>
+      </c>
+      <c r="BA16" s="102">
+        <f>SUM($H$13:BA13)*BA11</f>
+        <v>4</v>
+      </c>
+      <c r="BB16" s="102">
+        <f>SUM($H$13:BB13)*BB11</f>
+        <v>4</v>
+      </c>
+      <c r="BC16" s="102">
+        <f>SUM($H$13:BC13)*BC11</f>
+        <v>4</v>
+      </c>
+      <c r="BD16" s="102">
+        <f>SUM($H$13:BD13)*BD11</f>
+        <v>4</v>
+      </c>
+      <c r="BE16" s="102">
+        <f>SUM($H$13:BE13)*BE11</f>
+        <v>5</v>
+      </c>
+      <c r="BF16" s="102">
+        <f>SUM($H$13:BF13)*BF11</f>
+        <v>5</v>
+      </c>
+      <c r="BG16" s="102">
+        <f>SUM($H$13:BG13)*BG11</f>
+        <v>5</v>
+      </c>
+      <c r="BH16" s="102">
+        <f>SUM($H$13:BH13)*BH11</f>
+        <v>5</v>
+      </c>
+      <c r="BI16" s="102">
+        <f>SUM($H$13:BI13)*BI11</f>
+        <v>5</v>
+      </c>
+      <c r="BJ16" s="102">
+        <f>SUM($H$13:BJ13)*BJ11</f>
+        <v>5</v>
+      </c>
+      <c r="BK16" s="102">
+        <f>SUM($H$13:BK13)*BK11</f>
+        <v>5</v>
+      </c>
+      <c r="BL16" s="102">
+        <f>SUM($H$13:BL13)*BL11</f>
+        <v>5</v>
+      </c>
+      <c r="BM16" s="102">
+        <f>SUM($H$13:BM13)*BM11</f>
+        <v>5</v>
+      </c>
+      <c r="BN16" s="102">
+        <f>SUM($H$13:BN13)*BN11</f>
+        <v>5</v>
+      </c>
+      <c r="BO16" s="102">
+        <f>SUM($H$13:BO13)*BO11</f>
+        <v>5</v>
+      </c>
+      <c r="BP16" s="102">
+        <f>SUM($H$13:BP13)*BP11</f>
+        <v>5</v>
+      </c>
+      <c r="BQ16" s="102">
+        <f>SUM($H$13:BQ13)*BQ11</f>
+        <v>0</v>
+      </c>
+      <c r="BR16" s="102">
+        <f>SUM($H$13:BR13)*BR11</f>
+        <v>0</v>
+      </c>
+      <c r="BS16" s="102">
+        <f>SUM($H$13:BS13)*BS11</f>
+        <v>0</v>
+      </c>
+      <c r="BT16" s="102">
+        <f>SUM($H$13:BT13)*BT11</f>
+        <v>0</v>
+      </c>
+      <c r="BU16" s="102">
+        <f>SUM($H$13:BU13)*BU11</f>
+        <v>0</v>
+      </c>
+      <c r="BV16" s="102">
+        <f>SUM($H$13:BV13)*BV11</f>
+        <v>0</v>
+      </c>
+      <c r="BW16" s="102">
+        <f>SUM($H$13:BW13)*BW11</f>
+        <v>0</v>
+      </c>
+      <c r="BX16" s="102">
+        <f>SUM($H$13:BX13)*BX11</f>
+        <v>0</v>
+      </c>
+      <c r="BY16" s="102">
+        <f>SUM($H$13:BY13)*BY11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="153"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="153" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+    </row>
+    <row r="19" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" s="141">
+        <v>350</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="N19" s="142">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O19" s="49"/>
+    </row>
+    <row r="20" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="141">
+        <v>1800</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="N20" s="142">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O20" s="49"/>
+    </row>
+    <row r="21" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="L21" s="49"/>
+      <c r="M21" s="143">
+        <v>1.5</v>
+      </c>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+    </row>
+    <row r="22" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="156" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="156"/>
+      <c r="K22" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="145">
+        <v>300</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="N22" s="146">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O22" s="47"/>
+    </row>
+    <row r="23" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H23" s="32"/>
+      <c r="I23" s="147" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="32"/>
+      <c r="K23" s="147" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" s="148">
+        <v>100</v>
+      </c>
+      <c r="M23" s="147" t="s">
+        <v>225</v>
+      </c>
+      <c r="N23" s="149">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O23" s="147"/>
+    </row>
+    <row r="24" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="157"/>
+      <c r="I24" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" s="157"/>
+      <c r="K24" s="150">
+        <v>5</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+    </row>
+    <row r="25" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="156" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" s="156"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+    </row>
+    <row r="26" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="32"/>
+      <c r="I26" s="147" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="147"/>
+      <c r="O26" s="147"/>
+    </row>
+    <row r="27" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H27" s="32"/>
+      <c r="I27" s="147" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" s="32"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="147"/>
+    </row>
+    <row r="28" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="32"/>
+      <c r="I28" s="147" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
+    </row>
+    <row r="29" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="157"/>
+      <c r="I29" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" s="157"/>
+      <c r="K29" s="151" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="150">
+        <v>1</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" s="152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="I30" s="49"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="141">
+        <v>800</v>
+      </c>
+      <c r="M30" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="N30" s="142">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O30" s="49"/>
+    </row>
+    <row r="31" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="I31" s="49"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="144">
+        <v>1</v>
+      </c>
+      <c r="L31" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+    </row>
+    <row r="32" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="4" t="str">
+        <f>H19</f>
+        <v>PM용역비</v>
+      </c>
+    </row>
+    <row r="33" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="158">
+        <f>'A&amp;R'!N20</f>
+        <v>10350.34</v>
+      </c>
+      <c r="H33" s="2">
+        <f>$E$33*H$11</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" ref="I33:BT33" si="10">$E$33*I$11</f>
+        <v>10350.34</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="T33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="V33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="X33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Y33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AA33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AB33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AC33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AD33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AE33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AF33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AG33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AH33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AI33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AJ33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AK33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AL33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AM33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AN33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AO33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AP33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AQ33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AR33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AS33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AT33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AU33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AV33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AW33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AX33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AY33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AZ33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BA33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BB33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BC33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BD33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BE33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BF33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BG33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BH33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BI33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BJ33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BK33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BL33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BM33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BN33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BO33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BP33" s="2">
+        <f t="shared" si="10"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BQ33" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BR33" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BS33" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BT33" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BU33" s="2">
+        <f t="shared" ref="BU33:BY33" si="11">$E$33*BU$11</f>
+        <v>0</v>
+      </c>
+      <c r="BV33" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW33" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BX33" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BY33" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34" s="159">
+        <f>L19</f>
+        <v>350</v>
+      </c>
+      <c r="H34" s="2">
+        <f>$E$34*(1+$N$19)^(H$16-1)*H$11</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" ref="I34:BT34" si="12">$E$34*(1+$N$19)^(I$16-1)*I$11</f>
+        <v>350</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="T34" s="2">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="V34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="W34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="X34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="Y34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="AA34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="AB34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="AC34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="AD34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="AE34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="AF34" s="2">
+        <f t="shared" si="12"/>
+        <v>355.24999999999994</v>
+      </c>
+      <c r="AG34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AH34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AI34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AJ34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AK34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AL34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AM34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AN34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AO34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AP34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AQ34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AR34" s="2">
+        <f t="shared" si="12"/>
+        <v>360.5787499999999</v>
+      </c>
+      <c r="AS34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="AT34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="AU34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="AV34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="AW34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="AX34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="AY34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="AZ34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="BA34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="BB34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="BC34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="BD34" s="2">
+        <f t="shared" si="12"/>
+        <v>365.98743124999987</v>
+      </c>
+      <c r="BE34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BF34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BG34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BH34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BI34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BJ34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BK34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BL34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BM34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BN34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BO34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BP34" s="2">
+        <f t="shared" si="12"/>
+        <v>371.47724271874978</v>
+      </c>
+      <c r="BQ34" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BR34" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BS34" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BT34" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BU34" s="2">
+        <f t="shared" ref="BU34:BY34" si="13">$E$34*(1+$N$19)^(BU$16-1)*BU$11</f>
+        <v>0</v>
+      </c>
+      <c r="BV34" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BW34" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BX34" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BY34" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8">
+        <f>SUM(H35:XFD35)</f>
+        <v>223.97640069408828</v>
+      </c>
+      <c r="H35" s="8">
+        <f>H33*H34/unit</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <f>I33*I34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="J35" s="8">
+        <f>J33*J34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="K35" s="8">
+        <f>K33*K34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="L35" s="8">
+        <f>L33*L34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="M35" s="8">
+        <f>M33*M34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="N35" s="8">
+        <f>N33*N34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="O35" s="8">
+        <f>O33*O34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="P35" s="8">
+        <f>P33*P34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="Q35" s="8">
+        <f>Q33*Q34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="R35" s="8">
+        <f>R33*R34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="S35" s="8">
+        <f>S33*S34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="T35" s="8">
+        <f>T33*T34/unit</f>
+        <v>3.6226189999999998</v>
+      </c>
+      <c r="U35" s="8">
+        <f>U33*U34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="V35" s="8">
+        <f>V33*V34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="W35" s="8">
+        <f>W33*W34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="X35" s="8">
+        <f>X33*X34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="Y35" s="8">
+        <f>Y33*Y34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="Z35" s="8">
+        <f>Z33*Z34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="AA35" s="8">
+        <f>AA33*AA34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="AB35" s="8">
+        <f>AB33*AB34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="AC35" s="8">
+        <f>AC33*AC34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="AD35" s="8">
+        <f>AD33*AD34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="AE35" s="8">
+        <f>AE33*AE34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="AF35" s="8">
+        <f>AF33*AF34/unit</f>
+        <v>3.6769582849999995</v>
+      </c>
+      <c r="AG35" s="8">
+        <f>AG33*AG34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AH35" s="8">
+        <f>AH33*AH34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AI35" s="8">
+        <f>AI33*AI34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AJ35" s="8">
+        <f>AJ33*AJ34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AK35" s="8">
+        <f>AK33*AK34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AL35" s="8">
+        <f>AL33*AL34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AM35" s="8">
+        <f>AM33*AM34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AN35" s="8">
+        <f>AN33*AN34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AO35" s="8">
+        <f>AO33*AO34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AP35" s="8">
+        <f>AP33*AP34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AQ35" s="8">
+        <f>AQ33*AQ34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AR35" s="8">
+        <f>AR33*AR34/unit</f>
+        <v>3.7321126592749989</v>
+      </c>
+      <c r="AS35" s="8">
+        <f>AS33*AS34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="AT35" s="8">
+        <f>AT33*AT34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="AU35" s="8">
+        <f>AU33*AU34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="AV35" s="8">
+        <f>AV33*AV34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="AW35" s="8">
+        <f>AW33*AW34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="AX35" s="8">
+        <f>AX33*AX34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="AY35" s="8">
+        <f>AY33*AY34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="AZ35" s="8">
+        <f>AZ33*AZ34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="BA35" s="8">
+        <f>BA33*BA34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="BB35" s="8">
+        <f>BB33*BB34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="BC35" s="8">
+        <f>BC33*BC34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="BD35" s="8">
+        <f>BD33*BD34/unit</f>
+        <v>3.7880943491641235</v>
+      </c>
+      <c r="BE35" s="8">
+        <f>BE33*BE34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BF35" s="8">
+        <f>BF33*BF34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BG35" s="8">
+        <f>BG33*BG34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BH35" s="8">
+        <f>BH33*BH34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BI35" s="8">
+        <f>BI33*BI34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BJ35" s="8">
+        <f>BJ33*BJ34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BK35" s="8">
+        <f>BK33*BK34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BL35" s="8">
+        <f>BL33*BL34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BM35" s="8">
+        <f>BM33*BM34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BN35" s="8">
+        <f>BN33*BN34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BO35" s="8">
+        <f>BO33*BO34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BP35" s="8">
+        <f>BP33*BP34/unit</f>
+        <v>3.844915764401585</v>
+      </c>
+      <c r="BQ35" s="8">
+        <f>BQ33*BQ34/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BR35" s="8">
+        <f>BR33*BR34/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BS35" s="8">
+        <f>BS33*BS34/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BT35" s="8">
+        <f>BT33*BT34/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BU35" s="8">
+        <f>BU33*BU34/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BV35" s="8">
+        <f>BV33*BV34/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BW35" s="8">
+        <f>BW33*BW34/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BX35" s="8">
+        <f>BX33*BX34/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BY35" s="8">
+        <f>BY33*BY34/unit</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="4" t="str">
+        <f>H20</f>
+        <v>FM용역비</v>
+      </c>
+    </row>
+    <row r="38" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="158">
+        <f>'A&amp;R'!N20</f>
+        <v>10350.34</v>
+      </c>
+      <c r="H38" s="2">
+        <f>$E$33*H$11</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" ref="I38:BT38" si="14">$E$33*I$11</f>
+        <v>10350.34</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="W38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="X38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Y38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Z38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AA38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AB38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AC38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AD38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AE38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AF38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AG38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AH38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AI38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AJ38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AK38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AL38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AM38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AN38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AO38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AP38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AQ38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AR38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AS38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AT38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AU38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AV38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AW38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AX38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AY38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AZ38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BA38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BB38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BC38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BD38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BE38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BF38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BG38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BH38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BI38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BJ38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BK38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BL38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BM38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BN38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BO38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BP38" s="2">
+        <f t="shared" si="14"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BQ38" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BR38" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BS38" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BT38" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BU38" s="2">
+        <f t="shared" ref="BU38:BY38" si="15">$E$33*BU$11</f>
+        <v>0</v>
+      </c>
+      <c r="BV38" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BW38" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BX38" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BY38" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="159">
+        <f>L20</f>
+        <v>1800</v>
+      </c>
+      <c r="H39" s="2">
+        <f>$E$39*(1+$N$20)^(H$16-1)*H$11</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" ref="I39:BT39" si="16">$E$39*(1+$N$20)^(I$16-1)*I$11</f>
+        <v>1800</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="W39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="X39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="Y39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="AA39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="AB39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="AC39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="AD39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="AE39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="AF39" s="2">
+        <f t="shared" si="16"/>
+        <v>1826.9999999999998</v>
+      </c>
+      <c r="AG39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AH39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AI39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AJ39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AK39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AL39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AM39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AN39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AO39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AP39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AQ39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AR39" s="2">
+        <f t="shared" si="16"/>
+        <v>1854.4049999999995</v>
+      </c>
+      <c r="AS39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="AT39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="AU39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="AV39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="AW39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="AX39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="AY39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="AZ39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="BA39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="BB39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="BC39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="BD39" s="2">
+        <f t="shared" si="16"/>
+        <v>1882.2210749999992</v>
+      </c>
+      <c r="BE39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BF39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BG39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BH39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BI39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BJ39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BK39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BL39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BM39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BN39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BO39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BP39" s="2">
+        <f t="shared" si="16"/>
+        <v>1910.4543911249989</v>
+      </c>
+      <c r="BQ39" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BR39" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BS39" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BT39" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BU39" s="2">
+        <f t="shared" ref="BU39:BY39" si="17">$E$39*(1+$N$20)^(BU$16-1)*BU$11</f>
+        <v>0</v>
+      </c>
+      <c r="BV39" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BW39" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BX39" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BY39" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8">
+        <f>SUM(H40:XFD40)</f>
+        <v>1151.8786321410264</v>
+      </c>
+      <c r="H40" s="8">
+        <f>H38*H39/unit</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
+        <f>I38*I39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="J40" s="8">
+        <f>J38*J39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="K40" s="8">
+        <f>K38*K39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="L40" s="8">
+        <f>L38*L39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="M40" s="8">
+        <f>M38*M39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="N40" s="8">
+        <f>N38*N39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="O40" s="8">
+        <f>O38*O39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="P40" s="8">
+        <f>P38*P39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="Q40" s="8">
+        <f>Q38*Q39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="R40" s="8">
+        <f>R38*R39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="S40" s="8">
+        <f>S38*S39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="T40" s="8">
+        <f>T38*T39/unit</f>
+        <v>18.630611999999999</v>
+      </c>
+      <c r="U40" s="8">
+        <f>U38*U39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="V40" s="8">
+        <f>V38*V39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="W40" s="8">
+        <f>W38*W39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="X40" s="8">
+        <f>X38*X39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="Y40" s="8">
+        <f>Y38*Y39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="Z40" s="8">
+        <f>Z38*Z39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="AA40" s="8">
+        <f>AA38*AA39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="AB40" s="8">
+        <f>AB38*AB39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="AC40" s="8">
+        <f>AC38*AC39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="AD40" s="8">
+        <f>AD38*AD39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="AE40" s="8">
+        <f>AE38*AE39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="AF40" s="8">
+        <f>AF38*AF39/unit</f>
+        <v>18.910071179999999</v>
+      </c>
+      <c r="AG40" s="8">
+        <f>AG38*AG39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AH40" s="8">
+        <f>AH38*AH39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AI40" s="8">
+        <f>AI38*AI39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AJ40" s="8">
+        <f>AJ38*AJ39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AK40" s="8">
+        <f>AK38*AK39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AL40" s="8">
+        <f>AL38*AL39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AM40" s="8">
+        <f>AM38*AM39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AN40" s="8">
+        <f>AN38*AN39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AO40" s="8">
+        <f>AO38*AO39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AP40" s="8">
+        <f>AP38*AP39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AQ40" s="8">
+        <f>AQ38*AQ39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AR40" s="8">
+        <f>AR38*AR39/unit</f>
+        <v>19.193722247699995</v>
+      </c>
+      <c r="AS40" s="8">
+        <f>AS38*AS39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="AT40" s="8">
+        <f>AT38*AT39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="AU40" s="8">
+        <f>AU38*AU39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="AV40" s="8">
+        <f>AV38*AV39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="AW40" s="8">
+        <f>AW38*AW39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="AX40" s="8">
+        <f>AX38*AX39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="AY40" s="8">
+        <f>AY38*AY39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="AZ40" s="8">
+        <f>AZ38*AZ39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="BA40" s="8">
+        <f>BA38*BA39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="BB40" s="8">
+        <f>BB38*BB39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="BC40" s="8">
+        <f>BC38*BC39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="BD40" s="8">
+        <f>BD38*BD39/unit</f>
+        <v>19.481628081415494</v>
+      </c>
+      <c r="BE40" s="8">
+        <f>BE38*BE39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BF40" s="8">
+        <f>BF38*BF39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BG40" s="8">
+        <f>BG38*BG39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BH40" s="8">
+        <f>BH38*BH39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BI40" s="8">
+        <f>BI38*BI39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BJ40" s="8">
+        <f>BJ38*BJ39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BK40" s="8">
+        <f>BK38*BK39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BL40" s="8">
+        <f>BL38*BL39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BM40" s="8">
+        <f>BM38*BM39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BN40" s="8">
+        <f>BN38*BN39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BO40" s="8">
+        <f>BO38*BO39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BP40" s="8">
+        <f>BP38*BP39/unit</f>
+        <v>19.773852502636718</v>
+      </c>
+      <c r="BQ40" s="8">
+        <f>BQ38*BQ39/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BR40" s="8">
+        <f>BR38*BR39/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BS40" s="8">
+        <f>BS38*BS39/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BT40" s="8">
+        <f>BT38*BT39/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BU40" s="8">
+        <f>BU38*BU39/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BV40" s="8">
+        <f>BV38*BV39/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BW40" s="8">
+        <f>BW38*BW39/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BX40" s="8">
+        <f>BX38*BX39/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BY40" s="8">
+        <f>BY38*BY39/unit</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="4" t="str">
+        <f>H21</f>
+        <v>LM수수료</v>
+      </c>
+    </row>
+    <row r="43" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="2" t="str">
+        <f>운영수입!H21</f>
+        <v>지상3층</v>
+      </c>
+      <c r="D44" s="2">
+        <f>운영수입!S21</f>
+        <v>42.174999999999997</v>
+      </c>
+      <c r="E44" s="2">
+        <f>D44*M$21</f>
+        <v>63.262499999999996</v>
+      </c>
+      <c r="F44" s="18">
+        <f>EOMONTH('A&amp;R'!H36,운영수입!K21+1)</f>
+        <v>46326</v>
+      </c>
+      <c r="H44" s="2">
+        <f>(H$14=$F44)*$E44</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" ref="I44:BT45" si="18">(I$14=$F44)*$E44</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AM44" s="2">
+        <f t="shared" si="18"/>
+        <v>63.262499999999996</v>
+      </c>
+      <c r="AN44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AO44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AR44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AT44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AU44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AW44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AX44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AY44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BA44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BB44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BC44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BD44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BE44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BF44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BG44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BH44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BI44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BJ44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BK44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BL44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BM44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BN44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BO44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BP44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BR44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BS44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BT44" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BU44" s="2">
+        <f t="shared" ref="BU44:BY48" si="19">(BU$14=$F44)*$E44</f>
+        <v>0</v>
+      </c>
+      <c r="BV44" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BW44" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BX44" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BY44" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="2" t="str">
+        <f>운영수입!H22</f>
+        <v>지상2층</v>
+      </c>
+      <c r="D45" s="2">
+        <f>운영수입!S22</f>
+        <v>6.7439999999999998</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" ref="E45:E48" si="20">D45*M$21</f>
+        <v>10.116</v>
+      </c>
+      <c r="F45" s="18">
+        <f>EOMONTH('A&amp;R'!H37,운영수입!K22+1)</f>
+        <v>46326</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" ref="H45:W48" si="21">(H$14=$F45)*$E45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AK45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AM45" s="2">
+        <f t="shared" si="18"/>
+        <v>10.116</v>
+      </c>
+      <c r="AN45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AO45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AP45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AR45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AT45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AU45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AV45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AW45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AX45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AY45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BA45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BB45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BC45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BD45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BE45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BF45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BG45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BH45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BI45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BJ45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BK45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BL45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BM45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BN45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BO45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BP45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BR45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BS45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BT45" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BU45" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BV45" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BW45" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BX45" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BY45" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="2" t="str">
+        <f>운영수입!H23</f>
+        <v>지상1층</v>
+      </c>
+      <c r="D46" s="2">
+        <f>운영수입!S23</f>
+        <v>70.174999999999997</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="20"/>
+        <v>105.26249999999999</v>
+      </c>
+      <c r="F46" s="18">
+        <f>EOMONTH('A&amp;R'!H38,운영수입!K23+1)</f>
+        <v>46326</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" ref="I46:BT48" si="22">(I$14=$F46)*$E46</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AK46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AL46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AM46" s="2">
+        <f t="shared" si="22"/>
+        <v>105.26249999999999</v>
+      </c>
+      <c r="AN46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AP46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AR46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AS46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AT46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AU46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AX46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BA46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BB46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BC46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BD46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BE46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BF46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BG46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BH46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BI46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BJ46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BK46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BL46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BM46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BN46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BO46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BP46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BQ46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BR46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BS46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BT46" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BU46" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BV46" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BW46" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BX46" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BY46" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="2" t="str">
+        <f>운영수입!H24</f>
+        <v>지하1층</v>
+      </c>
+      <c r="D47" s="2">
+        <f>운영수입!S24</f>
+        <v>14.975</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="20"/>
+        <v>22.462499999999999</v>
+      </c>
+      <c r="F47" s="18">
+        <f>EOMONTH('A&amp;R'!H39,운영수입!K24+1)</f>
+        <v>45596</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="22"/>
+        <v>22.462499999999999</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AL47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AM47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AP47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AR47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AS47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AT47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AU47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AX47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BA47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BB47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BC47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BD47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BE47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BF47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BG47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BH47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BI47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BJ47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BK47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BL47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BM47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BN47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BO47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BP47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BQ47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BR47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BS47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BT47" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BU47" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BV47" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BW47" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BX47" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BY47" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C48" s="119" t="str">
+        <f>운영수입!H25</f>
+        <v>지하2층</v>
+      </c>
+      <c r="D48" s="119">
+        <f>운영수입!S25</f>
+        <v>117.375</v>
+      </c>
+      <c r="E48" s="119">
+        <f t="shared" si="20"/>
+        <v>176.0625</v>
+      </c>
+      <c r="F48" s="160">
+        <f>EOMONTH('A&amp;R'!H40,운영수입!K25+1)</f>
+        <v>45596</v>
+      </c>
+      <c r="G48" s="119"/>
+      <c r="H48" s="119">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="119">
+        <f t="shared" si="22"/>
+        <v>176.0625</v>
+      </c>
+      <c r="P48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AL48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AM48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AP48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AR48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AS48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AT48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AU48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AX48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BA48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BB48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BC48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BD48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BE48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BF48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BG48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BH48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BI48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BJ48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BK48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BL48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BM48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BN48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BO48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BP48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BQ48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BR48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BS48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BT48" s="119">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BU48" s="119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BV48" s="119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BW48" s="119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BX48" s="119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BY48" s="119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C49" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="7" t="b">
+        <f>ABS(SUM(E44:E48)-G49)&lt;0.001</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8">
+        <f>SUM(H49:BY49)</f>
+        <v>377.166</v>
+      </c>
+      <c r="H49" s="8">
+        <f>SUM(H44:H48)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" ref="I49:BT49" si="23">SUM(I44:I48)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="8">
+        <f t="shared" si="23"/>
+        <v>198.52500000000001</v>
+      </c>
+      <c r="P49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AH49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AK49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AL49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AM49" s="8">
+        <f t="shared" si="23"/>
+        <v>178.64099999999999</v>
+      </c>
+      <c r="AN49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AO49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AP49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AR49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AS49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AT49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AV49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AW49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AY49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BB49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BC49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BD49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BE49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BF49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BG49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BH49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BI49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BJ49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BK49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BL49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BM49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BN49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BO49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BP49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BQ49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BR49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BS49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BT49" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BU49" s="8">
+        <f t="shared" ref="BU49:BY49" si="24">SUM(BU44:BU48)</f>
+        <v>0</v>
+      </c>
+      <c r="BV49" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BW49" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BX49" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BY49" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="4" t="str">
+        <f>H22</f>
+        <v>유지보수비</v>
+      </c>
+    </row>
+    <row r="52" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C52" s="2" t="str">
+        <f>I22</f>
+        <v>수선비</v>
+      </c>
+    </row>
+    <row r="53" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" s="158">
+        <f>'A&amp;R'!N20</f>
+        <v>10350.34</v>
+      </c>
+      <c r="H53" s="2">
+        <f>$E$53*H$11</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" ref="I53:BT53" si="25">$E$53*I$11</f>
+        <v>10350.34</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Q53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="S53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="T53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="U53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="V53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="W53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="X53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Y53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Z53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AA53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AB53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AC53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AD53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AE53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AF53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AG53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AH53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AI53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AJ53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AK53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AL53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AM53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AN53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AO53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AP53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AQ53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AR53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AS53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AT53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AU53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AV53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AW53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AX53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AY53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AZ53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BA53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BB53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BC53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BD53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BE53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BF53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BG53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BH53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BI53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BJ53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BK53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BL53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BM53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BN53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BO53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BP53" s="2">
+        <f t="shared" si="25"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BQ53" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BR53" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BS53" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BT53" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BU53" s="2">
+        <f t="shared" ref="BU53:BY53" si="26">$E$53*BU$11</f>
+        <v>0</v>
+      </c>
+      <c r="BV53" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BW53" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BX53" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BY53" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="159">
+        <f>L22</f>
+        <v>300</v>
+      </c>
+      <c r="H54" s="2">
+        <f>$E54*(1+$N$22)^(H$16-1)*H$11</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" ref="I54:BT54" si="27">$E54*(1+$N$22)^(I$16-1)*I$11</f>
+        <v>300</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="27"/>
+        <v>300</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="27"/>
+        <v>300</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="27"/>
+        <v>300</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="27"/>
+        <v>300</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="27"/>
+        <v>300</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="27"/>
+        <v>300</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="27"/>
+        <v>300</v>
+      </c>
+      <c r="Q54" s="2">
+        <f t="shared" si="27"/>
+        <v>300</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="27"/>
+        <v>300</v>
+      </c>
+      <c r="S54" s="2">
+        <f t="shared" si="27"/>
+        <v>300</v>
+      </c>
+      <c r="T54" s="2">
+        <f t="shared" si="27"/>
+        <v>300</v>
+      </c>
+      <c r="U54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="V54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="W54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="X54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="Y54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="Z54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="AA54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="AB54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="AC54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="AD54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="AE54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="AF54" s="2">
+        <f t="shared" si="27"/>
+        <v>304.49999999999994</v>
+      </c>
+      <c r="AG54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AH54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AI54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AJ54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AK54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AL54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AM54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AN54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AO54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AP54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AQ54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AR54" s="2">
+        <f t="shared" si="27"/>
+        <v>309.06749999999994</v>
+      </c>
+      <c r="AS54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="AT54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="AU54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="AV54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="AW54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="AX54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="AY54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="AZ54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="BA54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="BB54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="BC54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="BD54" s="2">
+        <f t="shared" si="27"/>
+        <v>313.70351249999987</v>
+      </c>
+      <c r="BE54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BF54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BG54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BH54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BI54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BJ54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BK54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BL54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BM54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BN54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BO54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BP54" s="2">
+        <f t="shared" si="27"/>
+        <v>318.40906518749983</v>
+      </c>
+      <c r="BQ54" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BR54" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BS54" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BT54" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BU54" s="2">
+        <f t="shared" ref="BU54:BY54" si="28">$E54*(1+$N$22)^(BU$16-1)*BU$11</f>
+        <v>0</v>
+      </c>
+      <c r="BV54" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BW54" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BX54" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BY54" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:77" s="161" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C55" s="162" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" s="162"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="162"/>
+      <c r="G55" s="162">
+        <f>SUM(H55:XFD55)</f>
+        <v>191.97977202350432</v>
+      </c>
+      <c r="H55" s="162">
+        <f>H53*H54/unit</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="162">
+        <f>I53*I54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="J55" s="162">
+        <f>J53*J54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="K55" s="162">
+        <f>K53*K54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="L55" s="162">
+        <f>L53*L54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="M55" s="162">
+        <f>M53*M54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="N55" s="162">
+        <f>N53*N54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="O55" s="162">
+        <f>O53*O54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="P55" s="162">
+        <f>P53*P54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="Q55" s="162">
+        <f>Q53*Q54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="R55" s="162">
+        <f>R53*R54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="S55" s="162">
+        <f>S53*S54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="T55" s="162">
+        <f>T53*T54/unit</f>
+        <v>3.105102</v>
+      </c>
+      <c r="U55" s="162">
+        <f>U53*U54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="V55" s="162">
+        <f>V53*V54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="W55" s="162">
+        <f>W53*W54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="X55" s="162">
+        <f>X53*X54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="Y55" s="162">
+        <f>Y53*Y54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="Z55" s="162">
+        <f>Z53*Z54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="AA55" s="162">
+        <f>AA53*AA54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="AB55" s="162">
+        <f>AB53*AB54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="AC55" s="162">
+        <f>AC53*AC54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="AD55" s="162">
+        <f>AD53*AD54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="AE55" s="162">
+        <f>AE53*AE54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="AF55" s="162">
+        <f>AF53*AF54/unit</f>
+        <v>3.1516785299999994</v>
+      </c>
+      <c r="AG55" s="162">
+        <f>AG53*AG54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AH55" s="162">
+        <f>AH53*AH54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AI55" s="162">
+        <f>AI53*AI54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AJ55" s="162">
+        <f>AJ53*AJ54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AK55" s="162">
+        <f>AK53*AK54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AL55" s="162">
+        <f>AL53*AL54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AM55" s="162">
+        <f>AM53*AM54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AN55" s="162">
+        <f>AN53*AN54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AO55" s="162">
+        <f>AO53*AO54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AP55" s="162">
+        <f>AP53*AP54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AQ55" s="162">
+        <f>AQ53*AQ54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AR55" s="162">
+        <f>AR53*AR54/unit</f>
+        <v>3.1989537079499994</v>
+      </c>
+      <c r="AS55" s="162">
+        <f>AS53*AS54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="AT55" s="162">
+        <f>AT53*AT54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="AU55" s="162">
+        <f>AU53*AU54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="AV55" s="162">
+        <f>AV53*AV54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="AW55" s="162">
+        <f>AW53*AW54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="AX55" s="162">
+        <f>AX53*AX54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="AY55" s="162">
+        <f>AY53*AY54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="AZ55" s="162">
+        <f>AZ53*AZ54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="BA55" s="162">
+        <f>BA53*BA54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="BB55" s="162">
+        <f>BB53*BB54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="BC55" s="162">
+        <f>BC53*BC54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="BD55" s="162">
+        <f>BD53*BD54/unit</f>
+        <v>3.2469380135692489</v>
+      </c>
+      <c r="BE55" s="162">
+        <f>BE53*BE54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BF55" s="162">
+        <f>BF53*BF54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BG55" s="162">
+        <f>BG53*BG54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BH55" s="162">
+        <f>BH53*BH54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BI55" s="162">
+        <f>BI53*BI54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BJ55" s="162">
+        <f>BJ53*BJ54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BK55" s="162">
+        <f>BK53*BK54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BL55" s="162">
+        <f>BL53*BL54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BM55" s="162">
+        <f>BM53*BM54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BN55" s="162">
+        <f>BN53*BN54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BO55" s="162">
+        <f>BO53*BO54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BP55" s="162">
+        <f>BP53*BP54/unit</f>
+        <v>3.2956420837727869</v>
+      </c>
+      <c r="BQ55" s="162">
+        <f>BQ53*BQ54/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BR55" s="162">
+        <f>BR53*BR54/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BS55" s="162">
+        <f>BS53*BS54/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BT55" s="162">
+        <f>BT53*BT54/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BU55" s="162">
+        <f>BU53*BU54/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BV55" s="162">
+        <f>BV53*BV54/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BW55" s="162">
+        <f>BW53*BW54/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BX55" s="162">
+        <f>BX53*BX54/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BY55" s="162">
+        <f>BY53*BY54/unit</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C56" s="2" t="str">
+        <f>I23</f>
+        <v>소모품비</v>
+      </c>
+    </row>
+    <row r="57" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="158">
+        <f>'A&amp;R'!N20</f>
+        <v>10350.34</v>
+      </c>
+      <c r="H57" s="2">
+        <f>$E57*H$11</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" ref="I57:BT57" si="29">$E57*I$11</f>
+        <v>10350.34</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="P57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Q57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="R57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="S57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="T57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="U57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="V57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="W57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="X57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Y57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="Z57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AA57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AB57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AC57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AD57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AE57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AF57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AG57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AH57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AI57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AJ57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AK57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AL57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AM57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AN57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AO57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AP57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AQ57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AR57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AS57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AT57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AU57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AV57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AW57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AX57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AY57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="AZ57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BA57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BB57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BC57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BD57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BE57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BF57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BG57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BH57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BI57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BJ57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BK57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BL57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BM57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BN57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BO57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BP57" s="2">
+        <f t="shared" si="29"/>
+        <v>10350.34</v>
+      </c>
+      <c r="BQ57" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BR57" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BS57" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BT57" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BU57" s="2">
+        <f t="shared" ref="BU57:BY57" si="30">$E57*BU$11</f>
+        <v>0</v>
+      </c>
+      <c r="BV57" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BW57" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BX57" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BY57" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C58" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="159">
+        <f>L23</f>
+        <v>100</v>
+      </c>
+      <c r="H58" s="2">
+        <f>$E58*(1+$N$23)^(H$16-1)*H$11</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" ref="I58:BT58" si="31">$E58*(1+$N$23)^(I$16-1)*I$11</f>
+        <v>100</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="P58" s="2">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="Q58" s="2">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="R58" s="2">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="S58" s="2">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="T58" s="2">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="U58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="V58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="W58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="X58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="Y58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="Z58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="AA58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="AB58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="AC58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="AD58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="AE58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="AF58" s="2">
+        <f t="shared" si="31"/>
+        <v>101.49999999999999</v>
+      </c>
+      <c r="AG58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AH58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AI58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AJ58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AK58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AL58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AM58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AN58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AO58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AP58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AQ58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AR58" s="2">
+        <f t="shared" si="31"/>
+        <v>103.02249999999998</v>
+      </c>
+      <c r="AS58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="AT58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="AU58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="AV58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="AW58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="AX58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="AY58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="AZ58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="BA58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="BB58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="BC58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="BD58" s="2">
+        <f t="shared" si="31"/>
+        <v>104.56783749999997</v>
+      </c>
+      <c r="BE58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BF58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BG58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BH58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BI58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BJ58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BK58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BL58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BM58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BN58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BO58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BP58" s="2">
+        <f t="shared" si="31"/>
+        <v>106.13635506249994</v>
+      </c>
+      <c r="BQ58" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BR58" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BS58" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BT58" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BU58" s="2">
+        <f t="shared" ref="BU58:BY58" si="32">$E58*(1+$N$23)^(BU$16-1)*BU$11</f>
+        <v>0</v>
+      </c>
+      <c r="BV58" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BW58" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BX58" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BY58" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:77" s="161" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C59" s="162" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="162"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="162"/>
+      <c r="G59" s="162">
+        <f>SUM(H59:XFD59)</f>
+        <v>63.993257341168082</v>
+      </c>
+      <c r="H59" s="162">
+        <f>H57*H58/unit</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="162">
+        <f>I57*I58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="J59" s="162">
+        <f>J57*J58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="K59" s="162">
+        <f>K57*K58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="L59" s="162">
+        <f>L57*L58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="M59" s="162">
+        <f>M57*M58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="N59" s="162">
+        <f>N57*N58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="O59" s="162">
+        <f>O57*O58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="P59" s="162">
+        <f>P57*P58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="Q59" s="162">
+        <f>Q57*Q58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="R59" s="162">
+        <f>R57*R58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="S59" s="162">
+        <f>S57*S58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="T59" s="162">
+        <f>T57*T58/unit</f>
+        <v>1.035034</v>
+      </c>
+      <c r="U59" s="162">
+        <f>U57*U58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="V59" s="162">
+        <f>V57*V58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="W59" s="162">
+        <f>W57*W58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="X59" s="162">
+        <f>X57*X58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="Y59" s="162">
+        <f>Y57*Y58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="Z59" s="162">
+        <f>Z57*Z58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="AA59" s="162">
+        <f>AA57*AA58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="AB59" s="162">
+        <f>AB57*AB58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="AC59" s="162">
+        <f>AC57*AC58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="AD59" s="162">
+        <f>AD57*AD58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="AE59" s="162">
+        <f>AE57*AE58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="AF59" s="162">
+        <f>AF57*AF58/unit</f>
+        <v>1.0505595099999998</v>
+      </c>
+      <c r="AG59" s="162">
+        <f>AG57*AG58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AH59" s="162">
+        <f>AH57*AH58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AI59" s="162">
+        <f>AI57*AI58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AJ59" s="162">
+        <f>AJ57*AJ58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AK59" s="162">
+        <f>AK57*AK58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AL59" s="162">
+        <f>AL57*AL58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AM59" s="162">
+        <f>AM57*AM58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AN59" s="162">
+        <f>AN57*AN58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AO59" s="162">
+        <f>AO57*AO58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AP59" s="162">
+        <f>AP57*AP58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AQ59" s="162">
+        <f>AQ57*AQ58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AR59" s="162">
+        <f>AR57*AR58/unit</f>
+        <v>1.0663179026499998</v>
+      </c>
+      <c r="AS59" s="162">
+        <f>AS57*AS58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="AT59" s="162">
+        <f>AT57*AT58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="AU59" s="162">
+        <f>AU57*AU58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="AV59" s="162">
+        <f>AV57*AV58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="AW59" s="162">
+        <f>AW57*AW58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="AX59" s="162">
+        <f>AX57*AX58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="AY59" s="162">
+        <f>AY57*AY58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="AZ59" s="162">
+        <f>AZ57*AZ58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="BA59" s="162">
+        <f>BA57*BA58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="BB59" s="162">
+        <f>BB57*BB58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="BC59" s="162">
+        <f>BC57*BC58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="BD59" s="162">
+        <f>BD57*BD58/unit</f>
+        <v>1.0823126711897497</v>
+      </c>
+      <c r="BE59" s="162">
+        <f>BE57*BE58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BF59" s="162">
+        <f>BF57*BF58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BG59" s="162">
+        <f>BG57*BG58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BH59" s="162">
+        <f>BH57*BH58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BI59" s="162">
+        <f>BI57*BI58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BJ59" s="162">
+        <f>BJ57*BJ58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BK59" s="162">
+        <f>BK57*BK58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BL59" s="162">
+        <f>BL57*BL58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BM59" s="162">
+        <f>BM57*BM58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BN59" s="162">
+        <f>BN57*BN58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BO59" s="162">
+        <f>BO57*BO58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BP59" s="162">
+        <f>BP57*BP58/unit</f>
+        <v>1.0985473612575958</v>
+      </c>
+      <c r="BQ59" s="162">
+        <f>BQ57*BQ58/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BR59" s="162">
+        <f>BR57*BR58/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BS59" s="162">
+        <f>BS57*BS58/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BT59" s="162">
+        <f>BT57*BT58/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BU59" s="162">
+        <f>BU57*BU58/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BV59" s="162">
+        <f>BV57*BV58/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BW59" s="162">
+        <f>BW57*BW58/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BX59" s="162">
+        <f>BX57*BX58/unit</f>
+        <v>0</v>
+      </c>
+      <c r="BY59" s="162">
+        <f>BY57*BY58/unit</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C60" s="2" t="str">
+        <f>I24</f>
+        <v>예비비</v>
+      </c>
+      <c r="G60" s="2">
+        <f>SUM(H60:BY60)</f>
+        <v>300</v>
+      </c>
+      <c r="H60" s="2">
+        <f>$K$24*H11</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" ref="I60:BT60" si="33">$K$24*I11</f>
+        <v>5</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="P60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="Q60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="R60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="S60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="T60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="U60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="V60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="W60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="X60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="Y60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="Z60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AA60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AB60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AC60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AD60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AE60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AF60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AG60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AH60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AI60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AJ60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AK60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AL60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AM60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AN60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AO60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AP60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AQ60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AR60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AS60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AT60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AU60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AV60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AW60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AX60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AY60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="AZ60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BA60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BB60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BC60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BD60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BE60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BF60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BG60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BH60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BI60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BJ60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BK60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BL60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BM60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BN60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BO60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BP60" s="2">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="BQ60" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BR60" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BS60" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BT60" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BU60" s="2">
+        <f t="shared" ref="BU60:BY60" si="34">$K$24*BU11</f>
+        <v>0</v>
+      </c>
+      <c r="BV60" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BW60" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BX60" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BY60" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C61" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8">
+        <f>SUM(H61:BY61)</f>
+        <v>555.97302936467304</v>
+      </c>
+      <c r="H61" s="8">
+        <f>SUM(H55,H59,H60)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
+        <f t="shared" ref="I61:BT61" si="35">SUM(I55,I59,I60)</f>
+        <v>9.140136</v>
+      </c>
+      <c r="J61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.140136</v>
+      </c>
+      <c r="K61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.140136</v>
+      </c>
+      <c r="L61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.140136</v>
+      </c>
+      <c r="M61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.140136</v>
+      </c>
+      <c r="N61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.140136</v>
+      </c>
+      <c r="O61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.140136</v>
+      </c>
+      <c r="P61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.140136</v>
+      </c>
+      <c r="Q61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.140136</v>
+      </c>
+      <c r="R61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.140136</v>
+      </c>
+      <c r="S61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.140136</v>
+      </c>
+      <c r="T61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.140136</v>
+      </c>
+      <c r="U61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="V61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="W61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="X61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="Y61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="Z61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="AA61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="AB61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="AC61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="AD61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="AE61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="AF61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2022380399999992</v>
+      </c>
+      <c r="AG61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AH61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AI61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AJ61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AK61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AL61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AM61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AN61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AO61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AP61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AQ61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AR61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.2652716105999993</v>
+      </c>
+      <c r="AS61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="AT61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="AU61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="AV61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="AW61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="AX61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="AY61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="AZ61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="BA61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="BB61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="BC61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="BD61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3292506847589998</v>
+      </c>
+      <c r="BE61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BF61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BG61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BH61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BI61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BJ61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BK61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BL61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BM61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BN61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BO61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BP61" s="8">
+        <f t="shared" si="35"/>
+        <v>9.3941894450303831</v>
+      </c>
+      <c r="BQ61" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BR61" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BS61" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BT61" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BU61" s="8">
+        <f t="shared" ref="BU61:BY61" si="36">SUM(BU55,BU59,BU60)</f>
+        <v>0</v>
+      </c>
+      <c r="BV61" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BW61" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BX61" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BY61" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -51392,7 +60128,7 @@
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -51404,12 +60140,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -51498,7 +60234,7 @@
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -51510,8 +60246,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -51604,7 +60340,7 @@
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -51616,8 +60352,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -51710,7 +60446,7 @@
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -51722,8 +60458,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:AE7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -51816,112 +60552,6 @@
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:AE7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="2.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE2" s="2"/>
-    </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AB3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AB4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-    </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>45545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
